--- a/Tests/Validation/Wheat/FAR/Observed/FAR WAG W22-03.xlsx
+++ b/Tests/Validation/Wheat/FAR/Observed/FAR WAG W22-03.xlsx
@@ -20,176 +20,176 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="56">
-  <si>
-    <t>SimulationName</t>
-  </si>
-  <si>
-    <t>Clock.Today</t>
-  </si>
-  <si>
-    <t>Plot</t>
-  </si>
-  <si>
-    <t>Rep</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.CurrentStageName</t>
-  </si>
-  <si>
-    <t>Experiment</t>
-  </si>
-  <si>
-    <t>Crop</t>
-  </si>
-  <si>
-    <t>Wheat.SowingData.Cultivar</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.Zadok.Stage</t>
-  </si>
-  <si>
-    <t>Wheat.Phenology.Zadok.Stage.err</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.AboveGround.Wt.err</t>
-  </si>
-  <si>
-    <t>Wheat.SowingData.Population</t>
-  </si>
-  <si>
-    <t>Wheat.SowingData.Population.err</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.HeadNumber</t>
-  </si>
-  <si>
-    <t>Wheat.Spike.HeadNumber.err</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI</t>
-  </si>
-  <si>
-    <t>NDVIModel.Script.NDVI.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Density</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Density.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Moisture</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Moisture.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Protein</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Protein.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Screenings</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Screenings.err</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Wt</t>
-  </si>
-  <si>
-    <t>Wheat.Grain.Wt.err</t>
-  </si>
-  <si>
-    <t>FAR WAG W22-03</t>
-  </si>
-  <si>
-    <t>Wheat</t>
-  </si>
-  <si>
-    <t>Bennett</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>FAR WAG W22-03CvDS Bennett</t>
-  </si>
-  <si>
-    <t>Boree</t>
-  </si>
-  <si>
-    <t>FAR WAG W22-03CvBoree</t>
-  </si>
-  <si>
-    <t>Vixen</t>
-  </si>
-  <si>
-    <t>FAR WAG W22-03CvVixen</t>
-  </si>
-  <si>
-    <t>Scepter</t>
-  </si>
-  <si>
-    <t>FAR WAG W22-03CvScepter</t>
-  </si>
-  <si>
-    <t>V12167-048</t>
-  </si>
-  <si>
-    <t>FAR WAG W22-03CvV12167-048</t>
-  </si>
-  <si>
-    <t>Coota</t>
-  </si>
-  <si>
-    <t>FAR WAG W22-03CvCoota</t>
-  </si>
-  <si>
-    <t>Rockstar</t>
-  </si>
-  <si>
-    <t>FAR WAG W22-03CvRocksta</t>
-  </si>
-  <si>
-    <t>Longsword</t>
-  </si>
-  <si>
-    <t>FAR WAG W22-03CvLongsword</t>
-  </si>
-  <si>
-    <t>Accroc</t>
-  </si>
-  <si>
-    <t>FAR WAG W22-03CvRGT Accroc</t>
-  </si>
-  <si>
-    <t>Sunflex</t>
-  </si>
-  <si>
-    <t>FAR WAG W22-03CvSunflex</t>
-  </si>
-  <si>
-    <t>Illabo</t>
-  </si>
-  <si>
-    <t>FAR WAG W22-03CvIllabo</t>
-  </si>
-  <si>
-    <t>Valiant</t>
-  </si>
-  <si>
-    <t>FAR WAG W22-03CvValiant</t>
-  </si>
-  <si>
-    <t>HarvestRipe</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="56">
+  <x:si>
+    <x:t>SimulationName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Clock.Today</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Plot</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rep</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.CurrentStageName</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Experiment</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Crop</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SowingData.Cultivar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.Zadok.Stage</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Phenology.Zadok.Stage.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.AboveGround.Wt.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SowingData.Population</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.SowingData.Population.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.HeadNumber</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Spike.HeadNumber.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Spectral.NDVI.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Density</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Density.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Moisture</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Moisture.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Protein</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Protein.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Screenings</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Screenings.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Wt</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat.Grain.Wt.err</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Wheat</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Bennett</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03CvDS Bennett</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Boree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03CvBoree</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vixen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03CvVixen</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Scepter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03CvScepter</x:t>
+  </x:si>
+  <x:si>
+    <x:t>V12167-048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03CvV12167-048</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Coota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03CvCoota</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Rockstar</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03CvRocksta</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Longsword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03CvLongsword</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Accroc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03CvRGT Accroc</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Sunflex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03CvSunflex</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Illabo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03CvIllabo</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Valiant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FAR WAG W22-03CvValiant</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HarvestRipe</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
